--- a/maya makkouk (CSCC) 1.xlsx
+++ b/maya makkouk (CSCC) 1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96fdd228eb16daef/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{871A37E0-6061-47A0-9B2F-9AD44E9392BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF87E36C-FA4F-491D-A8EC-1668D8703596}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{871A37E0-6061-47A0-9B2F-9AD44E9392BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1B9FC48-4091-4F89-8A2E-E53242C26CEC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9462C5D-449F-4D9A-A1EE-48771100DAD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="1401">
   <si>
     <t>id</t>
   </si>
@@ -2614,18 +2615,12 @@
     <t>2-7-3-4</t>
   </si>
   <si>
-    <t>تفعيل وحماية سجلات المراقبة لأنظمة CCTV على مواقع أجهزة الطباعة المركزية والماسحات الضوئية والآت التصوير.</t>
-  </si>
-  <si>
     <t>Enabling and protecting CCTV logs which are used to monitor centralized printers, scanners and copy machines areas.</t>
   </si>
   <si>
     <t>2-7-3-5</t>
   </si>
   <si>
-    <t>استخدام أجهزة تمزيق الوثائق الورقية (Cross Shredding)، لإتلاف الوثائق في حال الانتهاء من استخدامها نهائيًا.</t>
-  </si>
-  <si>
     <t>Using cross-shredding devices, to securely dispose documents when no longer needed.</t>
   </si>
   <si>
@@ -4024,18 +4019,12 @@
     <t>In addition to the controls in ECC subdomain 1-1, the organization’s cybersecurity strategy must prioritize the support of protecting its critical systems.</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 1 - 6 - 2 يف الضوابط األساسية لألمن السيرباين، يجب أن تغطي متطلبات األمن السيرباين، إلدارة املشاريع والتغيريات عىل األصول املعلوماتية والتقنية لألنظمة الحساسة يف الجهة، بحد أدىن؛ ما ييل: 1 - 3 - 1 - 1 إجراء اختبار التحمل )Testing Stress )للتأكد من سعة املكونات املختلفة. 1 - 3 - 1 - ٢ التأكد من تطبيق متطلبات استمرارية األعامل.</t>
-  </si>
-  <si>
     <t>In addition to the subcontrols in ECC control 1-6-2, cybersecurity requirements of project management and asset (information technology) change management of the organization’s critical systems must include at least the following: 1-3-1-1 Conducting a stress test to ensure the capacity of the various components. 1-3-1-2 Ensuring the implementation of business continuity requirements.</t>
   </si>
   <si>
     <t>Projects Technology Information in Cybersecurity )</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 1 - 6 - 3 يف الضوابط األساسية لألمن السيرباين، يجب أن تغطي متطلبات األمن السيرباين، ملشاريع تطوير التطبيقات، والربمجيات الخاصة باألنظمة الحساسة للجهة، بحد أدىن؛ ما ييل: 1 - 3 - 2 - 1 إجراء مراجعة أمنية للشفرة املصدرية، قبل إطالقها )Review Code Source Security). 1 - 3 - 2 - 2 تأمني الوصول، والتخزين، والتوثيق للشفرة املصدرية )Code Source )وإصداراتها. 1 - 3 - 2 - 3 تأمني واجهة برمجة التطبيقات )API Authenticated). النقل اآلمن واملوثوق للتطبيقات من بيئات االختبار )Environment Testing )إىل بيئات اإلنتاج )Environment Production )مع حذف أي بيانات، أو هويات، أو كلامت مرور، متعلقة ببيئات االختبار، قبل النقل.</t>
-  </si>
-  <si>
     <t>In addition to the subcontrols in ECC control 1-6-3, cybersecurity requirements related to software and application development projects of the organization’s critical systems must include at least the following: 1-3-2-1 Conducting a security source code review before the critical system release. 1-3-2-2 Securing the access, storage, documentation and releases of source code. 1-3-2-3 Securing the authenticated Application Programming Interface (API). Secure and trusted migration of applications from testing environments to production environments, along with deletion of any data, IDs or passwords related to the testing environment before the migration.</t>
   </si>
   <si>
@@ -4045,12 +4034,6 @@
     <t>Audit and Assessment Periodical Cybersecurity</t>
   </si>
   <si>
-    <t>رجوعاً للضابط 1 - 8 - 1 يف الضوابط األساسية لألمن السيرباين، فإنه يجب عىل اإلدارة املعنية باألمن السيرباين؛ مراجعة تطبيق ضوابط األمن السيرباين لألنظمة الحساسة، مرة واحدة سنوياً؛ عىل األقل.</t>
-  </si>
-  <si>
-    <t>رجوعاً للضابط 1 - 8 - 2 يف الضوابط األساسية لألمن السيرباين، يجب أن تتم مراجعة تطبيق ضوابط األمن السيرباين لألنظمة الحساسة؛ من قبل أطراف مستقلة عن اإلدارة املعنية باألمن السيرباين من داخل الجهة، مرة واحدة؛ كل ثالث سنوات عىل األقل.</t>
-  </si>
-  <si>
     <t>With reference to ECC control 1-8-1, the organization’s cybersecurity function must review the implementation of CSCC at least once annually.</t>
   </si>
   <si>
@@ -4063,15 +4046,9 @@
     <t>In addition to the subcontrols in ECC control 1-9-3, personnel cybersecurity requirements prior to employment must include at least the following: 1-5-1-1 Screening or vetting candidates for working on critical systems. The technical support and development positions for critical systems, must be filled with experienced Saudi professionals.</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 1 - 9 - 3 يف الضوابط األساسية لألمن السيرباين، فإنه يجب أن تغطي متطلبات األمن السيرباين، قبل بدء عالقة العاملني املهنية بالجهة، بحد أدىن؛ ما ييل: 1 - 5 - 1 - 1 إجراء املسح األمني )Vetting or Screening )للعاملني عىل األنظمة الحساسة. 1 - 5 - 1 - 2 أن يشغل وظائف الدعم، والتطوير التقني، لألنظمة الحساسة؛ مواطنون ذوو كفاءة عالية</t>
-  </si>
-  <si>
     <t>إدارة الاصول</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط ضمن املكون الفرعي 2 - 1 يف الضوابط األساسية لألمن السيرباين، يجب أن تشمل متطلبات األمن السيرباين إلدارة األصول املعلوماتية والتقنية، بحد أدىن؛ ماييل: 2 - 1 - 1 2-2 إدارة هويات الدخول والصالحيات )Management Access and Identity ) ضامن حامية األمن السيرباين للوصول املنطقي )Access Logical )إىل األصول املعلوماتية والتقنية الهدف للجهة؛ من أجل منع الوصول غري املرصح به، وتقييد الوصول إىل ما هو مطلوب؛ إلنجاز األعامل املتعلقة بالجهة. الضوابط باإلضافة للضوابط الفرعية ضمن الضابط 2 - 2 - 3 يف الضوابط األساسية لألمن السيرباين، يجب أن تغطي متطلبات األمن السيرباين املتعلقة بإدارة هويات الدخول، والصالحيات لألنظمة الحساسة يف الجهة، بحد أدىن؛ ما ييل: 2 - ٢ - 1 - 1 منع الدخول عن بعد من خارج اململكة. تقييد الدخول عن بعد من داخل اململكة؛ عىل أن يتم التأكد عن طريق مركز العمليات األمنية الخاص بالجهة، عند كل عملية دخول؛ ومراقبة األنشطة املتعلقة بالدخول عن بعد باستمرار. 2 - ٢ - 1 - 2 التحقق من الهوية متعدد العنارص ) MFA «Authentication Factor-Multi ) لجميع املستفيدين. 2 - ٢ - 1 - ٣ التحقق من الهوية متعدد العنارص) MFA «Authentication Factor-Multi ) للمستخدمني ذوي الصالحيات الهامة، والحساسة؛ وعىل األنظمة املستخدمة إلدارة األنظمة الحساسة املذكورة يف الضابط 2 - 3 - 1 - 4 ومتابعتها. 2 - ٢ - 1 - ٤ 2 - ٢ - 1 - ٥ وضع سياسة آمنة لكلمة املرور ذات معايري عالية، وتطبيقها. استخدام الطرق والخوارزميات اآلمنة لحفظ ومعالجة كلامت املرور مثل: استخدام دوال االختزال )Functions Hashing). 2 - ٢ - 1 - ٦ اإلدارة اآلمنة لحسابات الخدمات )Account Service )مابني التطبيقات واألنظمة؛ وتعطيل الدخول البرشي التفاعيل )login Interactive )من خاللها. 2 - ٢ - 1 - ٧ فيام عدا مرشيف قواعد البيانات )Administrators Database)، مينع الوصول أو التعامل املبارش ألي مستخدم مع قواعد البيانات؛ ويتم ذلك من خالل التطبيقات ً ّ عىل الصالحيات املخول بها؛ مع مراعاة تطبيق حلول أمنية تحد، أو فقط، وبناء متنع من اطالع مرشيف قواعد البيانات عىل البيانات املصنفة )Data Classified). 2 - ٢ - 1 - ٨ » » 2 - 2 - 1 2 - 1 - 1 - 1 االحتفاظ بقامئة محدثة سنويا،ً لجميع األصول التابعة لألنظمة الحساسة. تحديد مالك األصول )Owner Assets )وإرشاكهم يف دورة حياة إدارة األصول، التابعة لألنظمة الحساسة</t>
-  </si>
-  <si>
     <t>Maintaining an annually-updated inventory of critical systems’ assets. Identifying assets owners and involving them in the asset management lifecycle for critical systems</t>
   </si>
   <si>
@@ -4081,21 +4058,6 @@
     <t>إدارة هويات الدخول والصالحيات</t>
   </si>
   <si>
-    <t>منع الدخول عن بعد من خارج اململكة.
-تقييد الدخول عن بعد من داخل اململكة؛ عىل أن يتم التأكد عن طريق مركز 
-العمليات األمنية الخاص بالجهة، عند كل عملية دخول؛ ومراقبة األنشطة املتعلقة 
-بالدخول عن بعد باستمرار.
-2 - ٢ - 1 - 2
-التحقق من الهوية متعدد العنارص ) MFA «Authentication Factor-Multi )
-لجميع املستفيدين.</t>
-  </si>
-  <si>
-    <t>رجوعاً للضابط 2 - 2 - 3 - 5 يف الضوابط األساسية لألمن السيرباين، يجب مراجعة هويات الدخول عىل األنظمة الحساسة، مرة واحدة، كل ثالثة أشهر، عىل األقل.</t>
-  </si>
-  <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 2 - 5 - 3 يف الضوابط األساسية لألمن السيرباين، يجب أن تغطي متطلبات األمن السيرباين إلدارة أمن شبكات األنظمة الحساسة للجهة بحد أدىن ما ييل: 2 - ٤ - 1 - 1 العزل والتقسيم املادي، أو املنطقي، لشبكات األنظمة الحساسة</t>
-  </si>
-  <si>
     <t>In addition to the subcontrols in ECC control 2-5-3, cybersecurity requirements of critical systems’ network security management must include at least the following:</t>
   </si>
   <si>
@@ -4108,24 +4070,10 @@
     <t>أمن األجهزة المحمولة )</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 2 - 6 - 3 يف الضوابط األساسية لألمن السيرباين، يجب أن تغطي متطلبات األمن السيرباين، الخاصة بأمن األجهزة املحمولة، وأجهزة )BYOD )للجهة، بحد أدىن؛ ما ييل: منع الوصول من األجهزة املحمولة لألنظمة الحساسة، إال لفرتة مؤقتة فقط؛ وذلك بعد إجراء تقييم املخاطر، وأخذ املوافقات الالزمة من اإلدارة املعنية باألمن السيرباين يف الجهة. ٢ - ٥ - 1 - 1 تشفري أقراص األجهزة املحمولة، ذات صالحية الوصول لألنظمة الحساسة، تشفرياً كامالً )Encryption Disk Full).</t>
-  </si>
-  <si>
     <t>In addition to the subcontrols in ECC control 2-6-3, cybersecurity requirements for mobile devices security and BYOD in the organization must include at least the following: Prohibting access to critical systems from mobile devices except for a temporary period only, after assessing the risks and obtaining the necessary approvals from the cybersecurity function in the organization. 2-5-1-1 Implementing full disk encryption for mobile devices with access to critical systems.</t>
   </si>
   <si>
-    <t>باإلضــــافة للــــضوابط الفرعية ضمن الــــضابط ٢ - ٧ - ٣ يف الضوابط األساسية لألمن السيرباين، يجب أن تغطي متطلبات األمن السيرباين لحامية البيانات واملعلومات؛ بحد أدىن، ما ييل: عدم استخـــدام بـــيانات األنـــظمة الحساسة يف غري بيئة اإلنتاج )Production Environment )إال بعد استخدام ضوابط مشددة لحامية تلك البيانات مثل: تقنيات تعتيم البيانات )Masking Data )أو تقنيات مزج البيانات )Scrambling Data). 2 - ٦ - 1 - 1 2 - ٦ - 1 - ٢ تصنيف جميع بيانات األنظمة الحساسة. حامية البيانات املصنفة الخاصة باألنظمة الحساسة من خالل تقنيات، منع ترسيب البيانات )Prevention Leakage Data). 2 - ٦ - 1 - ٣ تحديد مدة االحتفاظ املطلوبة )Period Retention )لبيانات األعامل املتعلقة باألنظمة الحساسة؛ حسب الترشيعات ذات العالقة، ويتم االحتفاظ بالبيانات املطلوبة فقط، يف بيئات اإلنتاج لألنظمة الحساسة. 2 - ٦ - 1 - ٤ 2 - ٦ - 1 - ٥ منع نقل أي من بيانات بيئة اإلنتاج الخاصة باألنظمة الحساسة إىل أي بيئة أخرى.</t>
-  </si>
-  <si>
     <t>In addition to the subcontrols in ECC control 2-7-3, cybersecurity requirements for protecting and handling data and information must include at least the following: Prohibting the use of critical systems’ data in any environment other than production environment, except after applying strict controls for protecting that data, such as: data masking or data scrambling techniques. 2-6-1-1 2-6-1-2 Classifying all data within critical systems. Protecting classified data of critical systems using data leakage prevention techniques. 2-6-1-3 Identifying retention period for critical systems-associated data, in accordance with relevant legislations. Only required data must be retained in critical systems’ production environments</t>
-  </si>
-  <si>
-    <t>تشفري جميع بيانات األنظمة الحساسة؛ أثناء النقل )Transit-In-Data).
-تشفري جميع بيانات األنظمة الحساسة؛ أثناء التخزين )Rest-At-Data )عىل مستوى 
-امللفات، أو قاعدة البيانات، أو عىل مستوى أعمدة محددة، داخل قاعدة البيانات.
-2 - ٧ - 1 - ٢
-استخدام طرق وخوارزميات ومفاتيح وأجهزة تشفري محدثة وآمنة وفقاً ملا تصدره 
-الهيئة بهذا الشأن.</t>
   </si>
   <si>
     <t xml:space="preserve">Encrypting all critical systems’ data-in-transit.
@@ -4137,17 +4085,6 @@
   </si>
   <si>
     <t xml:space="preserve">إدارة النسخ االحتياطية </t>
-  </si>
-  <si>
-    <t>نطاق عمل النسخ االحتياطي املتصل، وغري املتصل )Backup Offline and Online )
-ليشمل جميع األنظمة الحساسة.
-2 - ٨ - 1 - 1
-ً عىل تقييم املخاطر للجهة.
-عمل النسخ االحتياطي عىل فرتات زمنية مخطط لها؛ بناء
-وتويص الهيئة بأن يتم عمل النسخ االحتياطي، لألنظمة الحساسة، بشكل يومي.
-2 - ٨ - 1 - ٢
-تأمني الوصول، والتخزين، والنقل ملحتوى النسخ االحتياطية لألنظمة الحساسة 
-ووسائطها، وحاميتها من اإلتالف، أو التعديل، أو االطالع غري املرصح به.</t>
   </si>
   <si>
     <t>Scope and coverage of online and offline backups shall cover all critical systems. 
@@ -4159,58 +4096,19 @@
 media, and protecting it from destruction, unauthorized access or modification.</t>
   </si>
   <si>
-    <t>رجوعاً للضابط 2 - 9 - 3 - 3 يف الضوابط األساسية لألمن السيرباين، يجب إجراء فحص دوري؛ كل ثالثة 
-أشهر عىل األقل، لتحديد مدى فعالية استعادة النسخ االحتياطية، الخاصة باألنظمة الحساسة.</t>
-  </si>
-  <si>
     <t>With reference to ECC subcontrol 2-9-3-3, a periodical test must be conducted at least 
 once every three months in order to determine the efficiency of recovering critical systems 
 backups.</t>
   </si>
   <si>
-    <t>إدارة مخاطر الامن السيبراني )Management Risk C</t>
-  </si>
-  <si>
     <t>الامن السيبراني ضمن إدارة المشاريع المعلوماتية والتقنية</t>
   </si>
   <si>
-    <t>إستراتيجية األمن السيبراني )</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cybersecurity Strategy</t>
-  </si>
-  <si>
-    <t>باإلضافة للضوابط ضمن املكون الفرعي 1 - 1 يف الضوابط األساسية لألمن السيرباين، يجب أن تضع
-إسرتاتيجية األمــن السيرباين للجهة أولـويـة لدعم حامية األنظمة الحساسة الخاصة بالجهة.</t>
   </si>
   <si>
     <t>In addition to the controls in ECC subdomain 1-1, the organization’s cybersecurity strategy 
 must prioritize the support of protecting its critical systems.</t>
-  </si>
-  <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 2 - 10 - 3 يف الضوابط األساسية لألمن السيرباين، يجب أن 
-تغطي متطلبات األمن السيرباين إلدارة الثغرات لألنظمة الحساسة، بحد أدىن، ما ييل:
-2 - 9 - 1
-رجوعاً للضابط 2 - 10 - 3 - 1 يف الضوابط األساسية لألمن السيرباين، يجب فحص الثغرات واكتشافها عىل
-املكونات التقنية، لألنظمة الحساسة، مرة واحدة شهرياً؛ عىل األقل.
-2 - 9 - 2
-نطاق عمل النسخ االحتياطي املتصل، وغري املتصل )Backup Offline and Online )
-ليشمل جميع األنظمة الحساسة.
-2 - ٨ - 1 - 1
-ً عىل تقييم املخاطر للجهة.
-عمل النسخ االحتياطي عىل فرتات زمنية مخطط لها؛ بناء
-وتويص الهيئة بأن يتم عمل النسخ االحتياطي، لألنظمة الحساسة، بشكل يومي.
-2 - ٨ - 1 - ٢
-تأمني الوصول، والتخزين، والنقل ملحتوى النسخ االحتياطية لألنظمة الحساسة 
-ووسائطها، وحاميتها من اإلتالف، أو التعديل، أو االطالع غري املرصح به.
-2 - ٨ - 1 - ٣
-2 - ٩ - 1 - 1 استخدام وسائل وأدوات موثوقة إلكتشاف الثغرات.
-تقييم الثغرات ومعالجتها )بتنصيب حزم التحديثات واإلصالحات( عىل املكونات 
-التقنية لألنظمة الحساسة، مرة واحدة شهريا،ً عىل األقل، لألنظمة الحساسة الخارجية، 
-واملتصلة باإلنرتنت؛ وكل ثالثة أشهر عىل األقل، لألنظمة الحساسة الداخلية.
-2 - ٩ - 1 - ٢
-معالجة فورية للثغرات الحرجة )Vulnerabilities Critical )املكتشفة حديثاً؛ مع 
-اتباع آليات إدارة التغيري، املعتمدة لدى الجهة.</t>
   </si>
   <si>
     <t>In addition to the subcontrols in ECC control 2-10-3, cybersecurity requirements for 
@@ -4229,31 +4127,6 @@
 on critical systems’ technical components at least once every month</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 2 - 10 - 3 يف الضوابط األساسية لألمن السيرباين، يجب أن 
-تغطي متطلبات األمن السيرباين إلدارة الثغرات لألنظمة الحساسة، بحد أدىن، ما ييل:
-2 - 9 - 1
-رجوعاً للضابط 2 - 10 - 3 - 1 يف الضوابط األساسية لألمن السيرباين، يجب فحص الثغرات واكتشافها عىل
-املكونات التقنية، لألنظمة الحساسة، مرة واحدة شهرياً؛ عىل األقل.
-2 - 9 - 2
-نطاق عمل النسخ االحتياطي املتصل، وغري املتصل )Backup Offline and Online )
-ليشمل جميع األنظمة الحساسة.
-2 - ٨ - 1 - 1
-ً عىل تقييم املخاطر للجهة.
-عمل النسخ االحتياطي عىل فرتات زمنية مخطط لها؛ بناء
-وتويص الهيئة بأن يتم عمل النسخ االحتياطي، لألنظمة الحساسة، بشكل يومي.
-2 - ٨ - 1 - ٢
-تأمني الوصول، والتخزين، والنقل ملحتوى النسخ االحتياطية لألنظمة الحساسة 
-ووسائطها، وحاميتها من اإلتالف، أو التعديل، أو االطالع غري املرصح به.
-2 - ٨ - 1 - ٣
-2 - ٩ - 1 - 1 استخدام وسائل وأدوات موثوقة إلكتشاف الثغرات.
-تقييم الثغرات ومعالجتها )بتنصيب حزم التحديثات واإلصالحات( عىل املكونات 
-التقنية لألنظمة الحساسة، مرة واحدة شهريا،ً عىل األقل، لألنظمة الحساسة الخارجية، 
-واملتصلة باإلنرتنت؛ وكل ثالثة أشهر عىل األقل، لألنظمة الحساسة الداخلية.
-2 - ٩ - 1 - ٢
-معالجة فورية للثغرات الحرجة )Vulnerabilities Critical )املكتشفة حديثاً؛ مع 
-اتباع آليات إدارة التغيري، املعتمدة لدى الجهة</t>
-  </si>
-  <si>
     <t>اختبار االختراق</t>
   </si>
   <si>
@@ -4265,42 +4138,12 @@
 2-10-1-2 Conducting penetration tests by a qualified team. </t>
   </si>
   <si>
-    <t>نطاق عمل اختبار االخرتاق، ليشمل جميع املكونات التقنية لألنظمة الحساسة، 
-وجميع الخدمات املقدمة داخلياً وخارجيا.ً
-2 - ١٠ - 1 - 1
-2 - ١٠ - 1 - ٢ عمل اختبار االخرتاق من قبل فريق مؤهل</t>
-  </si>
-  <si>
     <t>In addition to the subcontrols in ECC control 2-11-3, cybersecurity requirements for 
 penetration testing on critical systems must include at least the following: 
 Scope of penetration tests must cover all of the critical systems’ technical 
 components and all its internal and external services. 
 2-10-1-1
 2-10-1-2 Conducting penetration tests by a qualified team</t>
-  </si>
-  <si>
-    <t>اإلضافة للضوابط الفرعية ضمن الضابط 2 - 12 - 3 يف الضوابط األساسية لألمن السيرباين، يجب أن 
-تغطي متطلبات إدارة سجالت األحداث، ومراقبة األمن السيرباين لألنظمة الحساسة، بحد أدىن؛ ما ييل:
-2 - 11 - 1
-رجوعاً للضابط 2 - 12 - 3 - 5 يف الضوابط األساسية لألمن السيرباين، يجب أن ال تقل مدة االحتفاظ 
-بسجالت األحداث الخاصة باألمن السيرباين، عىل األنظمة الحساسة عن 18 شهراً؛ حسب املتطلبات 
-الترشيعية، والتنظيمية، ذات العالقة.
-2 - 11 - 2
-نطاق عمل اختبار االخرتاق، ليشمل جميع املكونات التقنية لألنظمة الحساسة، 
-وجميع الخدمات املقدمة داخلياً وخارجيا.ً
-2 - ١٠ - 1 - 1
-2 - ١٠ - 1 - ٢ عمل اختبار االخرتاق من قبل فريق مؤهل.
-تفعيل سجالت األحداث )logs Event )الخاصة باألمن السيرباين؛ عىل جميع املكونات
-التقنية لألنظمة الحساسة.
-2 - ١١ - 1 - 1
-تفعيل التنبيهات وسجالت األحداث املتعلقة بإدارة تغيريات امللفات )Integrity File
-Management )ومراقبتها.
-2 - ١١ - 1 - ٢
-2 - ١١ - 1 - ٣ مراقبة سلوك املستخدم )»UBA «Analytics Behavior User )وتحليله.
-2 - ١١ - 1 - ٤ مراقبة سجالت األحداث، الخاصة باألنظمة الحساسة عىل مدار الساعة.
-االحتفاظ بسجالت األحداث، الخاصة باألمن السيرباين، املتعلقة باألنظمة الحساسة
-وحاميتها؛ عىل أن تكون شاملة، ومتضمنة للتفاصيل كاملة )مثل: الوقت، التاريخ، 
-الهوية، النظام املتأثر(.</t>
   </si>
   <si>
     <t>In addition to the subcontrols in ECC control 2-12-3, cybersecurity requirements for 
@@ -4318,17 +4161,9 @@
 include all details (e.g., time, date, ID and affected system).</t>
   </si>
   <si>
-    <t>رجوعاً للضابط 2 - 12 - 3 - 5 يف الضوابط األساسية لألمن السيرباين، يجب أن ال تقل مدة االحتفاظ 
-بسجالت األحداث الخاصة باألمن السيرباين، عىل األنظمة الحساسة عن 18 شهراً؛ حسب املتطلبات 
-الترشيعية، والتنظيمية، ذات العالقة</t>
-  </si>
-  <si>
     <t>With reference to ECC subcontrol 2-12-3-5, retention period of cybersecurity’s critical 
 systems event logs must be 18 months minimum, in accordance with relevant legislative 
 and regulatory requirements</t>
-  </si>
-  <si>
-    <t>إدارة سجالت األحداث ومراقبة األمن السيبراني</t>
   </si>
   <si>
     <t>In addition to the subcontrols in ECC control 2-15-3, cybersecurity requirements for external 
@@ -4338,17 +4173,6 @@
 2-12-1-1
 Applying the minimum standards of Open Web Application Security Project 
 (OWASP) Top Ten.</t>
-  </si>
-  <si>
-    <t>اإلدارة اآلمنة للجلسات )Management Session Secure)، ويشمل موثوقية 
-الجلسات )Authenticity)، وإقفالها )Lockout)، وإنهاء مهلتها )Timeout).
-2 - ١٢ - 1 - 1
-2 - ١٢ - 1 - ٢ تطبيق معايري أمن التطبيقات وحاميتها )Ten Top OWASP )يف حدها األدى</t>
-  </si>
-  <si>
-    <t>رجـــوعاً للضابط ٢ - ١٥ - ٣ - ٢ يف الضوابط األساســية لألمن السيرباين، يجب استخدام مبدأ املعامرية
- ذات املســـتويات املتعددة )Architecture tier-Multi )عىل أن ال يقـــل عدد املســـتويات عن ٣
-)Architecture Tier3-).</t>
   </si>
   <si>
     <t xml:space="preserve">With reference to ECC subcontrol 2-15-3-2, multi-tier architecture principle, with mini_x0002_mum 3 tiers, must </t>
@@ -4383,47 +4207,7 @@
 reviewed periodically. </t>
   </si>
   <si>
-    <t>يجب تحديد وتوثيق واعتامد متطلبات األمن السيرباين لحامية التطبيقات الداخلية الخاصة باألنظمة
-الحساسة للجهة من املخاطر السيربانية</t>
-  </si>
-  <si>
-    <t>يجب تطبيق متطلبات األمن السيرباين؛ لحامية التطبيقات الداخلية، الخاصة باألنظمة الحساسة للجهة.</t>
-  </si>
-  <si>
-    <t>استخدام مبدأ املعامرية ذات املستويات املتعددة )Architecture tier-Multi )عىل 
-أن ال يقل عدد املستويات عن 3 )Architecture Tier3-).
-2 - ١٣ - ٣ - 1
-2 - ١٣ - ٣ - ٢ استخدام بروتوكوالت آمنة )مثل بروتوكول HTTPS).
-2 - ١٣ - ٣ - ٣ توضيح سياسة االستخدام اآلمن للمستخدمني.
-اإلدارة اآلمنة للجلسات )Management Session Secure)، ويشمل موثوقية
-الجلسات )Authenticity)، وإقفالها )Lockout)، وإنهاء مهلتها )Timeout).</t>
-  </si>
-  <si>
-    <t>مراجعة متطلبات األمن السيرباين لحامية التطبيقات الداخلية الخاصة باألنظمة الحساسة للجهة دوريا</t>
-  </si>
-  <si>
-    <t>جوانب صمود األمن السيبراني في إدارة استمرارية األعمال</t>
-  </si>
-  <si>
     <t>Cybersecurity Resilience Aspects of Business Continuity Management (BCM</t>
-  </si>
-  <si>
-    <t>األمن السيبراني المتعلق باألطراف الخارجية</t>
-  </si>
-  <si>
-    <t>األمن السيبراني المتعلق بالحوسبة السحابية واالستضافة</t>
-  </si>
-  <si>
-    <t>باإلضـــافة للـضوابط الفرعية ضمن الضــابط 3 - 1 - 3 يف الضوابط األســـاسية لألمن السيرباين، يجب أن
-تغطي إدارة استمرارية األعامل يف الجهة، بحد أدىن؛ ما ييل:
-3 - 1 - 1
-٣ - ١ - ١ - ١ وضع مركز للتعايف من الكوارث لألنظمة الحساسة.
-٣ - ١ - ١ - ٢ إدراج األنظمة الحساسة؛ ضمن خطط التعايف من الكوارث.
-إجراء اختبارات دورية؛ للتأكد من فعالية خطط التعايف، من الكوارث لألنظمة
-الحساسة، مرة واحدة سنوياً؛ عىل األقل.
-٣ - ١ - ١ - ٣
-تويص الهيئة بإجراء اختبار دوري حي؛ للتعايف من الكوارث )Test DR Live )لألنظمة 
-الحساسة.</t>
   </si>
   <si>
     <t>In addition to the subcontrols in ECC control 3-1-3, cybersecurity requirements for business 
@@ -4447,15 +4231,6 @@
 requirements.</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط ضمن املكون الفرعي 4 - 1 يف الضوابط األساسية لألمن السيرباين، يجب أن تغطي متطلبات 
-األمن السيرباين، املتعلقة باألطراف الخارجية، بحد أدىن؛ ما ييل:
-إجراء املسح األمني )Vetting or Screening )لرشكات خدمات اإلسناد، وملوظفي 
-خدمات اإلسناد، والخدمات املدارة العاملني عىل األنظمة الحساسة.
-٤ - ١ - ١ - ١
-أن تكون خدمات اإلسناد، والخدمات املدارة عىل األنظمة الحساسة؛ عن طريق رشكات، 
-وجهات وطنية؛ وفقاً للمتطلبات الترشيعية، والتنظيمية ذات العالقة</t>
-  </si>
-  <si>
     <t>In addition to the subcontrols in ECC control 4-2-3, cybersecurity requirements related to 
 the use of hosting and cloud computing services must include at least the following: 
 Hosting of critical systems and any part of their technical components must 
@@ -4465,19 +4240,650 @@
 the hosted data.</t>
   </si>
   <si>
-    <t>باإلضافة للضوابط الفرعية ضمن الضابط 4 - 2 - 3 يف الضوابط األساسية لألمن السرياين، يجب أن تغطي 
-متطلبات األمن السيرباين الخاصة باستخدام خدمات الحوسبة السحابية واالستضافة، بحد أدىن؛ ما ييل:
-4 - 2 - 1
-أن يكون موقع استضافة األنظمة الحساسة، أو أي جزء من مكوناتها التقنية، داخل
-الجهة، أو يف خدمات الحوسبة السحابية، املقدمة من قبل جهات حكومية، أو رشكات وطنية 
-محققة لضوابط الحوسبة السحابية الصادرة من الهيئة مع مراعاة تصنيف البيانات املستضافة.</t>
+    <t>إدارة مخاطر الامن السيبراني</t>
+  </si>
+  <si>
+    <t>إستراتيجية الامن السيبراني</t>
+  </si>
+  <si>
+    <t>إدارة سجالت الاحداث ومراقبة الامن السيبراني</t>
+  </si>
+  <si>
+    <t>جوانب صمود األمن السيبراني في إدارة استمرارية الاعمال</t>
+  </si>
+  <si>
+    <t>الامن السيبراني المتعلق بالاطراف الخارجية</t>
+  </si>
+  <si>
+    <t>الامن السيبراني المتعلق بالحوسبة السحابية والاستضافة</t>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط ضمن المكون الفرعي</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ١-١</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تضع إستراتيجية الأمن السيبراني للجهة أولوية لدعم حماية الأنظمة الحساسة الخاصة بالجهة.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط ضمن المكون الفرعي</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ١-٥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تشمل منهجية إدارة مخاطر الأمن السيبراني بحد أدنى ما يأتي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ١-٦-٢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني، لإدارة المشاريع والتغييرات على الأصول المعلوماتية والتقنية للأنظمة الحساسة في جهة، بحد أدنى؛ ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط الفرعية ضمن الضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>١-٦-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني، لمشاريع تطوير التطبيقات، والبرمجيات الخاصة بالأنظمة الحساسة للجهة، بحد أدنى؛ ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رجوعاً للضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ١-٨-١</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، فإنه يجب على الإدارة المعنية بالأمن السيبراني؛ مراجعة تطبيق ضوابط الأمن السيبراني للأنظمة الحساسة، مرة واحدة سنوياً؛ على الأقل. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">رجوعاً للضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>١-٨-٢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تتم مراجعة تطبيق ضوابط الأمن السيبراني للأنظمة الحساسة؛ من قبل أطراف مستقلة عن الإدارة المعنية بالأمن السيبراني من داخل الجهة، مرة واحدة؛ كل ثلاث سنوات على الأقل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط الفرعية ضمن الضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">١-٩-٣ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>في الضوابط الأساسية للأمن السيبراني، فإنه يجب أن تغطي متطلبات الأمن السيبراني، قبل بدء علاقة العاملين المهنية بالجهة، بحد أدنى؛ ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط ضمن المكون الفرعي </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>٢-١</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تشمل متطلبات الأمن السيبراني لإدارة الأصول المعلوماتية والتقنية، بحد أدنى؛ مايلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-٢-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني المتعلقة بإدارة هويات الدخول، والصلاحيات للأنظمة الحساسة في الجهة، بحد أدنى؛ ما يلي: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">رجوعاً للضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>٢-٢-٣-٥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب مراجعة هويات الدخول على الأنظمة الحساسة، مرة واحدة، كل ثلاثة أشهر، على الأقل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-٣-٣ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني لحماية الأنظمة الحساسة، وأجهزة معالجة المعلومات الخاصة بها، بحد أدنى؛ ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-٥-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني لإدارة أمن شبكات الأنظمة الحساسة للجهة بحد أدنى ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط الفرعية ضمن الضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>٢-٦-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني، الخاصة بأمن الأجهزة المحمولة، وأجهزة (BYOD) للجهة، بحد أدنى؛ ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-٧-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني لحماية البيانات والمعلومات؛ بحد أدنى، ما يلي: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-٨-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني للتشفير، بحد أدنى، ما يلي: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط الفرعية ضمن الضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">٢-٩-٣ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني لإدارة النسخ الاحتياطية، بحد أدنى؛ ما يلي: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رجوعاً للضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-٩-٣-٣ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>في الضوابط الأساسية للأمن السيبراني، يجب إجراء فحص دوري؛ كل ثلاثة أشهر على الأقل، لتحديد مدى فعالية استعادة النسخ الاحتياطية، الخاصة بالأنظمة الحساسة.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-١٠-٣ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني لإدارة الثغرات للأنظمة الحساسة، بحد أدنى، ما يلي: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رجوعاً للضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-١٠-٣-١</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب فحص الثغرات واكتشافها على المكونات التقنية، للأنظمة الحساسة، مرة واحدة شهرياً؛ على الأقل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بالإضافة للضوابط الفرعية ضمن الضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-١١-٣ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني لاختبار الاختراق للأنظمة الحساسة، بحد أدنى؛ ما يلي: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رجوعاً للضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-١١-٣-٢ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">في الضوابط الأساسية للأمن السيبراني، يجب عمل اختبار الاختراق على الأنظمة الحساسة، كل ستة أشهر؛ على الأقل. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط الفرعية ضمن الضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>٢-١٢-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات إدارة سجلات الأحداث، ومراقبة الأمن السيبراني للأنظمة الحساسة، بحد أدنى؛ ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رجوعاً للضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-١٢-٣-٥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن لا تقل مدة الاحتفاظ بسجلات الأحداث الخاصة بالأمن السيبراني، على الأنظمة الحساسة عن ١٨ شهراً؛ حسب المتطلبات التشريعية، والتنظيمية، ذات العلاقة.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رجوعاً للضابط</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ٢-١٥-٣-٢ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>في الضوابط الأساسية للأمن السيبراني، يجب استخدام مبدأ المعمارية ذات المستويات المتعددة (Multi-tier Architecture) على أن لا يقل عدد المستويات عن ٣ (3-Tier Architecture).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط الفرعية ضمن الضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>٣-١-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي إدارة استمرارية الأعمال في الجهة، بحد أدنى؛ ما يلي:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط ضمن المكون الفرعي </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>٤-١</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيبراني، يجب أن تغطي متطلبات الأمن السيبراني، المتعلقة بالأطراف الخارجية، بحد أدنى؛ ما يلي:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بالإضافة للضوابط الفرعية ضمن الضابط </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B9AD"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t>٤-٢-٣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DIN NEXT™ ARABIC REGULAR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في الضوابط الأساسية للأمن السيراني، يجب أن تغطي متطلبات الأمن السيبراني الخاصة باستخدام خدمات الحوسبة السحابية والاستضافة، بحد أدنى؛ ما يلي: </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4486,16 +4892,51 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B9AD"/>
+      <name val="DIN NEXT™ ARABIC REGULAR"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DIN Next LT Arabic Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DIN NEXT™ ARABIC REGULAR"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DIN NEXT™ ARABIC REGULAR"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4503,11 +4944,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF757575"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF757575"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF757575"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF757575"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4515,6 +4971,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4834,13 +5302,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48666E6-5A62-4559-B66C-3E43B21415C9}">
-  <dimension ref="A1:I388"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="93" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
+      <selection activeCell="H386" sqref="H386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -4853,7 +5321,7 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4882,18 +5350,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>862</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -4905,18 +5373,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -4928,18 +5396,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -4951,18 +5419,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -4980,18 +5448,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5003,18 +5471,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5026,18 +5494,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -5049,18 +5517,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -5072,18 +5540,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -5095,18 +5563,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -5118,18 +5586,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -5141,18 +5609,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -5164,18 +5632,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
@@ -5187,18 +5655,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -5210,18 +5678,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -5233,18 +5701,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
@@ -5256,18 +5724,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -5279,18 +5747,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -5302,15 +5770,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -5325,15 +5793,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>53</v>
@@ -5348,15 +5816,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>56</v>
@@ -5371,15 +5839,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>59</v>
@@ -5394,18 +5862,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
@@ -5417,18 +5885,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -5440,18 +5908,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>17</v>
@@ -5463,18 +5931,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -5486,15 +5954,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>70</v>
@@ -5509,15 +5977,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>73</v>
@@ -5532,18 +6000,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
@@ -5555,15 +6023,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>78</v>
@@ -5578,15 +6046,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>81</v>
@@ -5601,15 +6069,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>84</v>
@@ -5624,15 +6092,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>87</v>
@@ -5647,15 +6115,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>90</v>
@@ -5670,18 +6138,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
@@ -5693,18 +6161,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
@@ -5716,18 +6184,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
@@ -5739,18 +6207,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
@@ -5762,18 +6230,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
@@ -5785,18 +6253,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>17</v>
@@ -5814,18 +6282,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
@@ -5837,18 +6305,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
@@ -5860,18 +6328,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
@@ -5883,18 +6351,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>17</v>
@@ -5912,18 +6380,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
@@ -5935,18 +6403,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
@@ -5958,15 +6426,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>121</v>
@@ -5981,15 +6449,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>124</v>
@@ -6004,18 +6472,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>17</v>
@@ -6027,15 +6495,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>129</v>
@@ -6050,15 +6518,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>132</v>
@@ -6073,18 +6541,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>17</v>
@@ -6096,18 +6564,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>
@@ -6119,18 +6587,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
@@ -6142,18 +6610,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>17</v>
@@ -6171,18 +6639,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
@@ -6194,18 +6662,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
@@ -6217,15 +6685,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>149</v>
@@ -6240,15 +6708,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>152</v>
@@ -6263,15 +6731,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>155</v>
@@ -6286,15 +6754,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>158</v>
@@ -6309,18 +6777,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>17</v>
@@ -6332,15 +6800,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>163</v>
@@ -6355,15 +6823,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>166</v>
@@ -6378,15 +6846,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>169</v>
@@ -6401,18 +6869,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>17</v>
@@ -6424,18 +6892,18 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>10</v>
@@ -6447,18 +6915,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>17</v>
@@ -6476,15 +6944,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>17</v>
@@ -6496,18 +6964,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>977</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>10</v>
@@ -6519,18 +6987,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>10</v>
@@ -6542,18 +7010,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>10</v>
@@ -6565,18 +7033,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>10</v>
@@ -6588,18 +7056,18 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>10</v>
@@ -6611,18 +7079,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>10</v>
@@ -6634,18 +7102,18 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>17</v>
@@ -6657,18 +7125,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>10</v>
@@ -6680,18 +7148,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>10</v>
@@ -6703,15 +7171,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>198</v>
@@ -6726,15 +7194,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>201</v>
@@ -6749,15 +7217,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>204</v>
@@ -6772,15 +7240,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>207</v>
@@ -6795,15 +7263,15 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>210</v>
@@ -6818,18 +7286,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>17</v>
@@ -6841,18 +7309,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
@@ -6864,18 +7332,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>17</v>
@@ -6893,18 +7361,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>10</v>
@@ -6916,18 +7384,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>10</v>
@@ -6939,15 +7407,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>225</v>
@@ -6962,15 +7430,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>228</v>
@@ -6985,15 +7453,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>231</v>
@@ -7008,15 +7476,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>234</v>
@@ -7031,18 +7499,18 @@
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>17</v>
@@ -7054,18 +7522,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
@@ -7077,18 +7545,18 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>17</v>
@@ -7106,18 +7574,18 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>10</v>
@@ -7129,18 +7597,18 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>10</v>
@@ -7152,15 +7620,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>249</v>
@@ -7175,15 +7643,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>252</v>
@@ -7198,15 +7666,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>255</v>
@@ -7221,15 +7689,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>258</v>
@@ -7244,15 +7712,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>261</v>
@@ -7267,18 +7735,18 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>17</v>
@@ -7290,18 +7758,18 @@
         <v>265</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>10</v>
@@ -7313,18 +7781,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>17</v>
@@ -7342,18 +7810,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1035</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>10</v>
@@ -7365,18 +7833,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>10</v>
@@ -7388,15 +7856,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>276</v>
@@ -7411,15 +7879,15 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>279</v>
@@ -7434,15 +7902,15 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>282</v>
@@ -7457,15 +7925,15 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>285</v>
@@ -7480,15 +7948,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>288</v>
@@ -7503,15 +7971,15 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>291</v>
@@ -7526,15 +7994,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>294</v>
@@ -7549,15 +8017,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>297</v>
@@ -7572,18 +8040,18 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>17</v>
@@ -7595,18 +8063,18 @@
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>10</v>
@@ -7618,18 +8086,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>17</v>
@@ -7647,18 +8115,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>10</v>
@@ -7670,18 +8138,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>10</v>
@@ -7693,15 +8161,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>310</v>
@@ -7716,15 +8184,15 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>313</v>
@@ -7739,15 +8207,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>316</v>
@@ -7762,15 +8230,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>319</v>
@@ -7785,18 +8253,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>17</v>
@@ -7808,18 +8276,18 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>10</v>
@@ -7831,18 +8299,18 @@
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>17</v>
@@ -7860,18 +8328,18 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>10</v>
@@ -7883,18 +8351,18 @@
         <v>331</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>10</v>
@@ -7906,15 +8374,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>334</v>
@@ -7929,15 +8397,15 @@
         <v>336</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>337</v>
@@ -7952,15 +8420,15 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>340</v>
@@ -7975,18 +8443,18 @@
         <v>342</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>17</v>
@@ -7998,18 +8466,18 @@
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>10</v>
@@ -8021,18 +8489,18 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>17</v>
@@ -8050,18 +8518,18 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1080</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>10</v>
@@ -8073,18 +8541,18 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>10</v>
@@ -8096,15 +8564,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>353</v>
@@ -8119,15 +8587,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>356</v>
@@ -8142,15 +8610,15 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>359</v>
@@ -8165,18 +8633,18 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>17</v>
@@ -8188,18 +8656,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>10</v>
@@ -8211,18 +8679,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>17</v>
@@ -8240,18 +8708,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>10</v>
@@ -8263,18 +8731,18 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>10</v>
@@ -8286,15 +8754,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>373</v>
@@ -8309,15 +8777,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>376</v>
@@ -8332,15 +8800,15 @@
         <v>378</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>379</v>
@@ -8355,18 +8823,18 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>17</v>
@@ -8378,18 +8846,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>10</v>
@@ -8401,18 +8869,18 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>17</v>
@@ -8430,18 +8898,18 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>10</v>
@@ -8453,18 +8921,18 @@
         <v>391</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>10</v>
@@ -8476,15 +8944,15 @@
         <v>393</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>394</v>
@@ -8499,15 +8967,15 @@
         <v>396</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>397</v>
@@ -8522,15 +8990,15 @@
         <v>399</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>400</v>
@@ -8545,15 +9013,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>403</v>
@@ -8568,15 +9036,15 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>406</v>
@@ -8591,18 +9059,18 @@
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>17</v>
@@ -8614,18 +9082,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>10</v>
@@ -8637,18 +9105,18 @@
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>17</v>
@@ -8666,18 +9134,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>10</v>
@@ -8689,18 +9157,18 @@
         <v>418</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>10</v>
@@ -8712,15 +9180,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>421</v>
@@ -8735,15 +9203,15 @@
         <v>423</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>424</v>
@@ -8758,18 +9226,18 @@
         <v>426</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>17</v>
@@ -8781,18 +9249,18 @@
         <v>428</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>10</v>
@@ -8804,18 +9272,18 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>17</v>
@@ -8833,18 +9301,18 @@
         <v>434</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>10</v>
@@ -8856,18 +9324,18 @@
         <v>436</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>10</v>
@@ -8879,15 +9347,15 @@
         <v>438</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>439</v>
@@ -8902,15 +9370,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>442</v>
@@ -8925,15 +9393,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>445</v>
@@ -8948,15 +9416,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>448</v>
@@ -8971,15 +9439,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>451</v>
@@ -8994,18 +9462,18 @@
         <v>453</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>17</v>
@@ -9017,18 +9485,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>10</v>
@@ -9040,18 +9508,18 @@
         <v>456</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>17</v>
@@ -9069,15 +9537,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>461</v>
@@ -9092,15 +9560,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>464</v>
@@ -9115,9 +9583,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>9</v>
@@ -9138,9 +9606,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>9</v>
@@ -9161,9 +9629,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>9</v>
@@ -9184,9 +9652,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>9</v>
@@ -9207,9 +9675,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>9</v>
@@ -9230,15 +9698,15 @@
         <v>482</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>467</v>
@@ -9253,15 +9721,15 @@
         <v>484</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>485</v>
@@ -9276,18 +9744,18 @@
         <v>487</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>17</v>
@@ -9305,15 +9773,15 @@
         <v>491</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>492</v>
@@ -9328,15 +9796,15 @@
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>495</v>
@@ -9351,9 +9819,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>9</v>
@@ -9374,9 +9842,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>9</v>
@@ -9397,9 +9865,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>9</v>
@@ -9420,9 +9888,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>9</v>
@@ -9443,9 +9911,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>9</v>
@@ -9466,15 +9934,15 @@
         <v>513</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>498</v>
@@ -9489,15 +9957,15 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>516</v>
@@ -9512,18 +9980,18 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>17</v>
@@ -9541,15 +10009,15 @@
         <v>522</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>523</v>
@@ -9564,15 +10032,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>526</v>
@@ -9587,9 +10055,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>9</v>
@@ -9610,9 +10078,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>9</v>
@@ -9633,9 +10101,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>9</v>
@@ -9656,9 +10124,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>9</v>
@@ -9679,9 +10147,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>9</v>
@@ -9702,15 +10170,15 @@
         <v>544</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>529</v>
@@ -9725,15 +10193,15 @@
         <v>546</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>547</v>
@@ -9748,18 +10216,18 @@
         <v>549</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>17</v>
@@ -9777,15 +10245,15 @@
         <v>553</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>17</v>
@@ -9797,18 +10265,18 @@
         <v>555</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>1182</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>10</v>
@@ -9820,18 +10288,18 @@
         <v>557</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>10</v>
@@ -9843,15 +10311,15 @@
         <v>559</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>560</v>
@@ -9866,15 +10334,15 @@
         <v>562</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>563</v>
@@ -9889,15 +10357,15 @@
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>566</v>
@@ -9912,18 +10380,18 @@
         <v>568</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>17</v>
@@ -9935,18 +10403,18 @@
         <v>570</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>10</v>
@@ -9958,18 +10426,18 @@
         <v>572</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>17</v>
@@ -9987,15 +10455,15 @@
         <v>576</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>17</v>
@@ -10007,18 +10475,18 @@
         <v>578</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>1196</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>10</v>
@@ -10030,15 +10498,15 @@
         <v>580</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>581</v>
@@ -10053,15 +10521,15 @@
         <v>583</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>584</v>
@@ -10076,15 +10544,15 @@
         <v>586</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>587</v>
@@ -10099,18 +10567,18 @@
         <v>589</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>17</v>
@@ -10122,15 +10590,15 @@
         <v>591</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>592</v>
@@ -10145,15 +10613,15 @@
         <v>594</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>595</v>
@@ -10168,18 +10636,18 @@
         <v>597</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>17</v>
@@ -10191,18 +10659,18 @@
         <v>599</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>10</v>
@@ -10214,18 +10682,18 @@
         <v>601</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>17</v>
@@ -10243,18 +10711,18 @@
         <v>605</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>1209</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>10</v>
@@ -10266,18 +10734,18 @@
         <v>607</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>10</v>
@@ -10289,15 +10757,15 @@
         <v>609</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>610</v>
@@ -10312,15 +10780,15 @@
         <v>612</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>613</v>
@@ -10335,15 +10803,15 @@
         <v>615</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>616</v>
@@ -10358,18 +10826,18 @@
         <v>618</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>17</v>
@@ -10381,18 +10849,18 @@
         <v>620</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>10</v>
@@ -10404,18 +10872,18 @@
         <v>622</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>17</v>
@@ -10433,15 +10901,15 @@
         <v>626</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>17</v>
@@ -10453,18 +10921,18 @@
         <v>628</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>1224</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>10</v>
@@ -10476,18 +10944,18 @@
         <v>630</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>10</v>
@@ -10499,15 +10967,15 @@
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>633</v>
@@ -10522,15 +10990,15 @@
         <v>635</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>636</v>
@@ -10545,15 +11013,15 @@
         <v>638</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>639</v>
@@ -10568,15 +11036,15 @@
         <v>641</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>642</v>
@@ -10591,15 +11059,15 @@
         <v>644</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9">
       <c r="A245" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>645</v>
@@ -10614,15 +11082,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9">
       <c r="A246" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>648</v>
@@ -10637,15 +11105,15 @@
         <v>650</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>651</v>
@@ -10660,15 +11128,15 @@
         <v>653</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9">
       <c r="A248" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>654</v>
@@ -10683,15 +11151,15 @@
         <v>656</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9">
       <c r="A249" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>657</v>
@@ -10706,15 +11174,15 @@
         <v>659</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9">
       <c r="A250" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>660</v>
@@ -10729,18 +11197,18 @@
         <v>662</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9">
       <c r="A251" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>17</v>
@@ -10752,18 +11220,18 @@
         <v>664</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9">
       <c r="A252" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>10</v>
@@ -10775,18 +11243,18 @@
         <v>666</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9">
       <c r="A253" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>17</v>
@@ -10804,15 +11272,15 @@
         <v>670</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9">
       <c r="A254" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>17</v>
@@ -10824,15 +11292,15 @@
         <v>672</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9">
       <c r="A255" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>17</v>
@@ -10844,18 +11312,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9">
       <c r="A256" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>17</v>
@@ -10867,18 +11335,18 @@
         <v>676</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9">
       <c r="A257" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>17</v>
@@ -10890,18 +11358,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9">
       <c r="A258" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>17</v>
@@ -10913,18 +11381,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="72">
       <c r="A259" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>10</v>
@@ -10936,18 +11404,18 @@
         <v>679</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9">
       <c r="A260" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>10</v>
@@ -10959,18 +11427,18 @@
         <v>681</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9">
       <c r="A261" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>17</v>
@@ -10982,15 +11450,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9">
       <c r="A262" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>684</v>
@@ -11005,15 +11473,15 @@
         <v>686</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9">
       <c r="A263" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>687</v>
@@ -11028,18 +11496,18 @@
         <v>689</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="86.4">
       <c r="A264" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>17</v>
@@ -11051,15 +11519,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>692</v>
@@ -11074,15 +11542,15 @@
         <v>694</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9">
       <c r="A266" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>695</v>
@@ -11097,15 +11565,15 @@
         <v>697</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9">
       <c r="A267" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>698</v>
@@ -11120,15 +11588,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9">
       <c r="A268" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>701</v>
@@ -11143,15 +11611,15 @@
         <v>703</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="57.6">
       <c r="A269" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>704</v>
@@ -11166,15 +11634,15 @@
         <v>706</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>707</v>
@@ -11189,15 +11657,15 @@
         <v>709</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9">
       <c r="A271" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>710</v>
@@ -11212,15 +11680,15 @@
         <v>712</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9">
       <c r="A272" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>17</v>
@@ -11232,18 +11700,18 @@
         <v>555</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9">
       <c r="A273" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>17</v>
@@ -11255,18 +11723,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>17</v>
@@ -11278,18 +11746,18 @@
         <v>713</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9">
       <c r="A275" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>17</v>
@@ -11301,18 +11769,18 @@
         <v>327</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9">
       <c r="A276" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>17</v>
@@ -11324,18 +11792,18 @@
         <v>348</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9">
       <c r="A277" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>17</v>
@@ -11347,18 +11815,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9">
       <c r="A278" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>17</v>
@@ -11370,18 +11838,18 @@
         <v>715</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9">
       <c r="A279" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>17</v>
@@ -11393,18 +11861,18 @@
         <v>717</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9">
       <c r="A280" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>17</v>
@@ -11416,15 +11884,15 @@
         <v>719</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9">
       <c r="A281" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>720</v>
@@ -11439,15 +11907,15 @@
         <v>722</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9">
       <c r="A282" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>723</v>
@@ -11462,18 +11930,18 @@
         <v>725</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9">
       <c r="A283" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>10</v>
@@ -11485,18 +11953,18 @@
         <v>727</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9">
       <c r="A284" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>10</v>
@@ -11508,18 +11976,18 @@
         <v>729</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9">
       <c r="A285" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>17</v>
@@ -11531,15 +11999,15 @@
         <v>731</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9">
       <c r="A286" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>732</v>
@@ -11554,15 +12022,15 @@
         <v>734</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9">
       <c r="A287" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>735</v>
@@ -11577,15 +12045,15 @@
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9">
       <c r="A288" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>738</v>
@@ -11600,15 +12068,15 @@
         <v>740</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>741</v>
@@ -11623,18 +12091,18 @@
         <v>743</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="A290" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>17</v>
@@ -11646,15 +12114,15 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="A291" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>746</v>
@@ -11669,15 +12137,15 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="A292" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>749</v>
@@ -11692,18 +12160,18 @@
         <v>751</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="A293" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>17</v>
@@ -11715,15 +12183,15 @@
         <v>753</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="A294" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>754</v>
@@ -11738,15 +12206,15 @@
         <v>756</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="A295" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>757</v>
@@ -11761,15 +12229,15 @@
         <v>759</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="A296" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>760</v>
@@ -11784,15 +12252,15 @@
         <v>762</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="A297" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>763</v>
@@ -11807,18 +12275,18 @@
         <v>765</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9">
       <c r="A298" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>17</v>
@@ -11830,15 +12298,15 @@
         <v>767</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>768</v>
@@ -11853,15 +12321,15 @@
         <v>770</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="A300" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>771</v>
@@ -11876,18 +12344,18 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="A301" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>17</v>
@@ -11899,18 +12367,18 @@
         <v>775</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="A302" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>10</v>
@@ -11922,18 +12390,18 @@
         <v>777</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="72">
       <c r="A303" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>10</v>
@@ -11945,18 +12413,18 @@
         <v>779</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9">
       <c r="A304" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>10</v>
@@ -11968,18 +12436,18 @@
         <v>781</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9">
       <c r="A305" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>17</v>
@@ -11991,18 +12459,18 @@
         <v>783</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9">
       <c r="A306" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>10</v>
@@ -12014,15 +12482,15 @@
         <v>785</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9">
       <c r="A307" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>17</v>
@@ -12034,18 +12502,18 @@
         <v>628</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9">
       <c r="A308" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>17</v>
@@ -12057,18 +12525,18 @@
         <v>603</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9">
       <c r="A309" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>17</v>
@@ -12080,18 +12548,18 @@
         <v>788</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9">
       <c r="A310" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>17</v>
@@ -12103,15 +12571,15 @@
         <v>790</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9">
       <c r="A311" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>791</v>
@@ -12126,15 +12594,15 @@
         <v>793</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9">
       <c r="A312" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>794</v>
@@ -12149,15 +12617,15 @@
         <v>796</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9">
       <c r="A313" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>797</v>
@@ -12172,15 +12640,15 @@
         <v>799</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>800</v>
@@ -12195,15 +12663,15 @@
         <v>802</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9">
       <c r="A315" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>803</v>
@@ -12218,15 +12686,15 @@
         <v>805</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9">
       <c r="A316" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>806</v>
@@ -12241,15 +12709,15 @@
         <v>808</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9">
       <c r="A317" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>809</v>
@@ -12264,15 +12732,15 @@
         <v>811</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9">
       <c r="A318" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>812</v>
@@ -12287,15 +12755,15 @@
         <v>814</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9">
       <c r="A319" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>815</v>
@@ -12310,15 +12778,15 @@
         <v>817</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9">
       <c r="A320" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>818</v>
@@ -12333,15 +12801,15 @@
         <v>820</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9">
       <c r="A321" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>821</v>
@@ -12356,15 +12824,15 @@
         <v>823</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9">
       <c r="A322" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>824</v>
@@ -12379,15 +12847,15 @@
         <v>826</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9">
       <c r="A323" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>827</v>
@@ -12402,15 +12870,15 @@
         <v>829</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9">
       <c r="A324" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>830</v>
@@ -12425,15 +12893,15 @@
         <v>832</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="72">
       <c r="A325" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>833</v>
@@ -12448,15 +12916,15 @@
         <v>835</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9">
       <c r="A326" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>836</v>
@@ -12471,15 +12939,15 @@
         <v>838</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9">
       <c r="A327" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>839</v>
@@ -12494,15 +12962,15 @@
         <v>841</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="72">
       <c r="A328" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>842</v>
@@ -12517,15 +12985,15 @@
         <v>844</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="A329" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>845</v>
@@ -12540,15 +13008,15 @@
         <v>847</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="A330" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>334</v>
@@ -12563,15 +13031,15 @@
         <v>849</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="A331" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>337</v>
@@ -12586,15 +13054,15 @@
         <v>851</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="A332" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>340</v>
@@ -12609,15 +13077,15 @@
         <v>853</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="A333" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>854</v>
@@ -12625,437 +13093,429 @@
       <c r="E333" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H333" s="1" t="s">
+      <c r="I333" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="I333" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D334" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I334" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="E334" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H334" s="1" t="s">
+    </row>
+    <row r="335" spans="1:9" ht="15">
+      <c r="B335" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H335" s="4"/>
+      <c r="I335" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="B336" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="I334" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>859</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B335" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I335" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B336" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="337" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="337" spans="2:9" ht="28.8">
       <c r="B337" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G337"/>
-      <c r="H337" s="3" t="s">
-        <v>1366</v>
+      <c r="H337" s="5" t="s">
+        <v>1374</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="338" spans="2:9">
       <c r="B338" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F338" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="339" spans="2:9">
       <c r="B339" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H339" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I339" t="s">
         <v>1323</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D339" s="1" t="s">
+    </row>
+    <row r="340" spans="2:9">
+      <c r="B340" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E339" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H339" t="s">
+      <c r="E340" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I340" t="s">
         <v>1325</v>
       </c>
-      <c r="I339" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B340" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H340" t="s">
-        <v>1328</v>
-      </c>
-      <c r="I340" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="2:9">
       <c r="B341" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F341" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
       <c r="G341" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1324</v>
+      </c>
+      <c r="H341" s="6" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="342" spans="2:9">
       <c r="B342" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D342" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H342" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="343" spans="2:9">
+      <c r="B343" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="E342" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H342" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I342" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B343" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="E343" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H343" t="s">
-        <v>1333</v>
-      </c>
       <c r="I343" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="344" spans="2:9">
       <c r="B344" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F344" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="G344" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H344" s="5"/>
+    </row>
+    <row r="345" spans="2:9">
+      <c r="B345" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H345" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I345" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B345" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H345" t="s">
-        <v>1338</v>
-      </c>
-      <c r="I345" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:9">
       <c r="B346" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F346" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="G346" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H346" s="5"/>
+    </row>
+    <row r="347" spans="2:9">
       <c r="B347" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H347" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H347" s="5" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9">
       <c r="B348" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F348" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="G348" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="349" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:9">
       <c r="B349" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D349" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H349" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="350" spans="2:9">
+      <c r="B350" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D350" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="E349" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H349" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I349" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B350" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="E350" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H350" t="s">
-        <v>1345</v>
+      <c r="H350" s="5" t="s">
+        <v>1381</v>
       </c>
       <c r="I350" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="351" spans="2:9">
       <c r="B351" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F351" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="G351" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:9">
       <c r="B352" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H352" t="s">
-        <v>1345</v>
+      <c r="H352" s="5" t="s">
+        <v>1382</v>
       </c>
       <c r="I352" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="353" spans="2:9">
       <c r="B353" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F353" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="G353" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:9">
       <c r="B354" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H354" t="s">
-        <v>1346</v>
-      </c>
+      <c r="H354" s="7"/>
       <c r="I354" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="355" spans="2:9">
       <c r="B355" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>17</v>
@@ -13066,76 +13526,78 @@
       <c r="G355" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="356" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H355" s="7"/>
+    </row>
+    <row r="356" spans="2:9">
       <c r="B356" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H356" t="s">
-        <v>1351</v>
+      <c r="H356" s="5" t="s">
+        <v>1383</v>
       </c>
       <c r="I356" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="357" spans="2:9">
       <c r="B357" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F357" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="G357" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H357" s="7"/>
+    </row>
+    <row r="358" spans="2:9">
       <c r="B358" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H358" t="s">
-        <v>1353</v>
+      <c r="H358" s="5" t="s">
+        <v>1384</v>
       </c>
       <c r="I358" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="359" spans="2:9">
       <c r="B359" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>17</v>
@@ -13146,36 +13608,37 @@
       <c r="G359" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="360" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H359" s="7"/>
+    </row>
+    <row r="360" spans="2:9" ht="86.4">
       <c r="B360" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H360" s="3" t="s">
-        <v>1355</v>
+      <c r="H360" s="5" t="s">
+        <v>1385</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="361" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="361" spans="2:9">
       <c r="B361" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>17</v>
@@ -13186,116 +13649,117 @@
       <c r="G361" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="362" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H361" s="7"/>
+    </row>
+    <row r="362" spans="2:9" ht="100.8">
       <c r="B362" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D362" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="363" spans="2:9" ht="43.2">
+      <c r="B363" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H362" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I362" s="2" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="363" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B363" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="E363" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H363" s="2" t="s">
-        <v>1360</v>
+      <c r="H363" s="5" t="s">
+        <v>1387</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="364" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="364" spans="2:9">
       <c r="B364" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G364" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="365" spans="2:9" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:9" ht="144">
       <c r="B365" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D365" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="366" spans="2:9" ht="28.8">
+      <c r="B366" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D366" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="E365" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H365" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I365" s="2" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="366" spans="2:9" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="B366" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1095</v>
-      </c>
       <c r="E366" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H366" s="2" t="s">
-        <v>1371</v>
+      <c r="H366" s="5" t="s">
+        <v>1389</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="367" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="367" spans="2:9">
       <c r="B367" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>17</v>
@@ -13307,175 +13771,175 @@
         <v>414</v>
       </c>
     </row>
-    <row r="368" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:9" ht="86.4">
       <c r="B368" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D368" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="369" spans="2:9" ht="86.4">
+      <c r="B369" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="E368" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H368" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="I368" s="2" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="369" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B369" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="E369" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H369" s="2" t="s">
-        <v>1374</v>
+      <c r="H369" s="5" t="s">
+        <v>1391</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="370" spans="2:9">
       <c r="B370" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="371" spans="2:9" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:9" ht="187.2">
       <c r="B371" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D371" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H371" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="372" spans="2:9" ht="43.2">
+      <c r="B372" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D372" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="E371" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H371" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="I371" s="2" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="372" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B372" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>1123</v>
-      </c>
       <c r="E372" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H372" s="2" t="s">
-        <v>1378</v>
+      <c r="H372" s="5" t="s">
+        <v>1393</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="373" spans="2:9">
       <c r="B373" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="374" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:9" ht="100.8">
       <c r="B374" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D374" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="375" spans="2:9">
+      <c r="B375" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D375" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="E374" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H374" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I374" s="2" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="375" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B375" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>1135</v>
-      </c>
       <c r="E375" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H375" s="2" t="s">
-        <v>1383</v>
+      <c r="H375" s="5" t="s">
+        <v>1395</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="376" spans="2:9">
       <c r="B376" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>17</v>
@@ -13487,12 +13951,12 @@
         <v>551</v>
       </c>
     </row>
-    <row r="377" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:9" ht="28.8">
       <c r="B377" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>461</v>
@@ -13500,19 +13964,19 @@
       <c r="E377" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H377" s="2" t="s">
-        <v>1391</v>
+      <c r="H377" s="5" t="s">
+        <v>1396</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="378" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="378" spans="2:9" ht="28.8">
       <c r="B378" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>464</v>
@@ -13520,19 +13984,19 @@
       <c r="E378" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H378" s="1" t="s">
-        <v>1392</v>
+      <c r="H378" s="5" t="s">
+        <v>1397</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="379" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="379" spans="2:9" ht="129.6">
       <c r="B379" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>467</v>
@@ -13540,19 +14004,19 @@
       <c r="E379" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H379" s="2" t="s">
-        <v>1393</v>
+      <c r="H379" s="5" t="s">
+        <v>1398</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="380" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="380" spans="2:9" ht="28.8">
       <c r="B380" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>485</v>
@@ -13560,156 +14024,246 @@
       <c r="E380" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H380" s="1" t="s">
-        <v>1394</v>
+      <c r="H380" s="5" t="s">
+        <v>1399</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="381" spans="2:9">
       <c r="B381" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1385</v>
+        <v>1358</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="382" spans="2:9" ht="144" x14ac:dyDescent="0.3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="382" spans="2:9" ht="129.6">
       <c r="C382" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H382" s="2" t="s">
-        <v>1399</v>
-      </c>
+      <c r="H382" s="5"/>
       <c r="I382" s="2" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="383" spans="2:9">
       <c r="B383" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1395</v>
+        <v>1371</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="384" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+      <c r="H383" s="5"/>
+    </row>
+    <row r="384" spans="2:9" ht="115.2">
       <c r="B384" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H384" s="2" t="s">
-        <v>1402</v>
-      </c>
       <c r="I384" s="2" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="385" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="385" spans="2:9">
       <c r="B385" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
       <c r="G385" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="386" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:9" ht="100.8">
       <c r="B386" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H386" s="2" t="s">
-        <v>1404</v>
+      <c r="H386" s="5" t="s">
+        <v>1400</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="387" spans="2:9">
       <c r="B387" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1398</v>
+        <v>1373</v>
       </c>
       <c r="G387" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H387" s="5"/>
+    </row>
+    <row r="388" spans="2:9">
       <c r="B388" s="1" t="s">
-        <v>1323</v>
-      </c>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="389" spans="2:9">
+      <c r="H389" s="5"/>
+    </row>
+    <row r="390" spans="2:9">
+      <c r="H390" s="5"/>
+    </row>
+    <row r="391" spans="2:9">
+      <c r="H391" s="5"/>
+    </row>
+    <row r="392" spans="2:9">
+      <c r="H392" s="5"/>
+    </row>
+    <row r="410" spans="8:8">
+      <c r="H410" s="5"/>
+    </row>
+    <row r="413" spans="8:8">
+      <c r="H413" s="5"/>
+    </row>
+    <row r="414" spans="8:8">
+      <c r="H414" s="5"/>
+    </row>
+    <row r="415" spans="8:8">
+      <c r="H415" s="5"/>
+    </row>
+    <row r="416" spans="8:8">
+      <c r="H416" s="5"/>
+    </row>
+    <row r="419" spans="8:8">
+      <c r="H419" s="5"/>
+    </row>
+    <row r="420" spans="8:8">
+      <c r="H420" s="5"/>
+    </row>
+    <row r="421" spans="8:8">
+      <c r="H421" s="5"/>
+    </row>
+    <row r="423" spans="8:8">
+      <c r="H423" s="5"/>
+    </row>
+    <row r="424" spans="8:8">
+      <c r="H424" s="5"/>
+    </row>
+    <row r="425" spans="8:8">
+      <c r="H425" s="5"/>
+    </row>
+    <row r="426" spans="8:8">
+      <c r="H426" s="5"/>
+    </row>
+    <row r="427" spans="8:8">
+      <c r="H427" s="5"/>
+    </row>
+    <row r="428" spans="8:8">
+      <c r="H428" s="5"/>
+    </row>
+    <row r="429" spans="8:8">
+      <c r="H429" s="5"/>
+    </row>
+    <row r="430" spans="8:8">
+      <c r="H430" s="5"/>
+    </row>
+    <row r="432" spans="8:8">
+      <c r="H432" s="5"/>
+    </row>
+    <row r="433" spans="8:8">
+      <c r="H433" s="5"/>
+    </row>
+    <row r="434" spans="8:8">
+      <c r="H434" s="5"/>
+    </row>
+    <row r="435" spans="8:8">
+      <c r="H435" s="5"/>
+    </row>
+    <row r="437" spans="8:8">
+      <c r="H437" s="5"/>
+    </row>
+    <row r="438" spans="8:8">
+      <c r="H438" s="5"/>
+    </row>
+    <row r="440" spans="8:8">
+      <c r="H440" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC0CD55-F3C6-4BC7-A320-5D18F056DE1F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>